--- a/BalanceSheet/ROK_bal.xlsx
+++ b/BalanceSheet/ROK_bal.xlsx
@@ -507,16 +507,16 @@
         <v>681000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-40300000.0</v>
+        <v>641000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>71800000.0</v>
+        <v>584000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-29300000.0</v>
+        <v>675000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-13800000.0</v>
+        <v>629000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>625300000.0</v>
@@ -1972,16 +1972,16 @@
         <v>806000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>20900000.0</v>
+        <v>721000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>25800000.0</v>
+        <v>688000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-81700000.0</v>
+        <v>667000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>51300000.0</v>
+        <v>743000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>708300000.0</v>
@@ -2793,7 +2793,7 @@
         <v>-352000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-65700000.0</v>
+        <v>-416000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>-353000000.0</v>
@@ -4521,7 +4521,7 @@
         <v>1752000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1695000000.0</v>
+        <v>1327800000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1238500000.0</v>
@@ -4648,7 +4648,7 @@
         <v>2394000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>2622000000.0</v>
+        <v>2254000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>2256900000.0</v>
